--- a/ExpenseTracker.xlsx
+++ b/ExpenseTracker.xlsx
@@ -2,26 +2,48 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b59d3e591412e4b/Analytics/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BC3B7B54-B614-439C-B25B-678906D2E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F095E179-725A-437B-991F-D067485BE82D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{BC3B7B54-B614-439C-B25B-678906D2E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39CB3911-C227-4A3E-9C4E-FC4D4A346BF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{E7D9780E-5436-49AF-AE6A-C6BF63798BA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{E7D9780E-5436-49AF-AE6A-C6BF63798BA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="MyDashboard" sheetId="2" r:id="rId3"/>
+    <sheet name="Expenses Table" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Expense Entry" sheetId="4" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="DashboardView" sheetId="11" r:id="rId4"/>
+    <sheet name="Categories" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="Instructions" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="CategoriesList">#REF!</definedName>
+    <definedName name="CategoryList">Categories!$A$1:$A$9</definedName>
+    <definedName name="NativeTimeline_Date">#N/A</definedName>
+    <definedName name="Slicer_Categroy">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="44" r:id="rId7"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId9"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -146,18 +168,6 @@
     <t>Wifi Bill</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -198,16 +208,121 @@
   </si>
   <si>
     <t>Dinner at xyz</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Categroy</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Electricity Bill</t>
+  </si>
+  <si>
+    <t>Manicure</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Please enter the date of the expense, select the appropriate category, add a brief description if needed, and enter the amount. Use the drop-down list in the 'Category' column to select from predefined options.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber </t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quick Calculated Expense</t>
+  </si>
+  <si>
+    <t>Ate Out</t>
+  </si>
+  <si>
+    <t>First Sheet : Expense Entry Sheet</t>
+  </si>
+  <si>
+    <t>This is where you will be entering your data.</t>
+  </si>
+  <si>
+    <t>Step 1 : Enter the date into the date column</t>
+  </si>
+  <si>
+    <t>Notes: You can either enter the date in the format dd/mm/yyyy or d/m/yy (1/1/24), it automatically gets formatted to dd/mm/yyyy as long as it has date, month and year</t>
+  </si>
+  <si>
+    <t>Step 2 : Choose the type of spending from the category column</t>
+  </si>
+  <si>
+    <t>Notes: Once you enter the date, a drop-down list will automatically be created in Category column for that date. Anything typed apart from the drop down list will not be accpeted until corrected</t>
+  </si>
+  <si>
+    <t>Step 3: Description column, where you can enter extra information on why the spending, can be helpful for further analysis if you want to find exact reason for that spending made</t>
+  </si>
+  <si>
+    <t>Notes : You can whatever</t>
+  </si>
+  <si>
+    <t>Step 4: Last step, here is where you will be entering the spending amount</t>
+  </si>
+  <si>
+    <t>Notes: enter the amount as plain numbers like 50, 25.50 or 25.5, 100 etc they will turn to $50, $25.50 or $25.50, $100. You don't have to enter $ or decimal points if you don't want to, to calculate accurate spending enter decimal</t>
+  </si>
+  <si>
+    <t>Second Sheet : Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear and quick view of all the calculations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeline: The one with the months, years with a scrollbar. You can select certain month or </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$$-C09]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +337,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF827081"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF827081"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF827081"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,91 +417,829 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF90A955"/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF90A955"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF90A955"/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
       </right>
-      <top style="medium">
-        <color rgb="FF90A955"/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF90A955"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF90A955"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF90A955"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF90A955"/>
-      </bottom>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="176" formatCode="[$$-C09]#,##0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="11"/>
+        <color rgb="FF827081"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF827081"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF827081"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF827081"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7E6F7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Timeline Style 1" pivot="0" table="0" count="9" xr9:uid="{A1DCED73-5ABC-42D2-860B-DD78699401E2}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="tracker" pivot="0" table="0" count="10" xr9:uid="{AC41DD60-9D17-4152-A475-1F09DF74787B}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF90A955"/>
+      <color rgb="FF827081"/>
+      <color rgb="FFE7E6F7"/>
+      <color rgb="FFFDBBC0"/>
+      <color rgb="FF86BFEA"/>
+      <color rgb="FFF9F9F9"/>
+      <color rgb="FFAEA3B0"/>
+      <color rgb="FFC6D2ED"/>
+      <color rgb="FFA294A1"/>
+      <color rgb="FF62ACE4"/>
+      <color rgb="FF7391D3"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="8">
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF86BFEA"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF86BFEA"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF86BFEA"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF86BFEA"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF7391D3"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF7391D3"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <color theme="0"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF827081"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF827081"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="tracker">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A0A4C193-F2C1-4fcb-8827-314CF55A85BB}">
+      <x15:dxfs count="7">
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF827081"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="0" tint="-0.14996795556505021"/>
+              <bgColor rgb="FFF9F9F9"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="0"/>
+              <bgColor rgb="FF827081"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="9"/>
+            <color rgb="FF827081"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="9"/>
+            <color rgb="FF827081"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="9"/>
+            <color rgb="FF827081"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="10"/>
+            <color rgb="FF827081"/>
+            <name val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </font>
+        </dxf>
+      </x15:dxfs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1">
+        <x15:timelineStyle name="Timeline Style 1">
+          <x15:timelineStyleElements>
+            <x15:timelineStyleElement type="selectionLabel" dxfId="6"/>
+            <x15:timelineStyleElement type="timeLevel" dxfId="5"/>
+            <x15:timelineStyleElement type="periodLabel1" dxfId="4"/>
+            <x15:timelineStyleElement type="periodLabel2" dxfId="3"/>
+            <x15:timelineStyleElement type="selectedTimeBlock" dxfId="2"/>
+            <x15:timelineStyleElement type="unselectedTimeBlock" dxfId="1"/>
+            <x15:timelineStyleElement type="selectedTimeBlockSpace" dxfId="0"/>
+          </x15:timelineStyleElements>
+        </x15:timelineStyle>
+      </x15:timelineStyles>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,8 +1259,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Expense Tracker.xlsx]Sheet3!PivotTable1</c:name>
-    <c:fmtId val="17"/>
+    <c:name>[ExpenseTracker.xlsx]Dashboard!MonthlyExpenses</c:name>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -357,10 +1272,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="827081"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -368,14 +1280,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Money</a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="827081"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Monthly Expenses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Spent</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -394,10 +1305,1189 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="AEA3B0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E3D0D8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="AEA3B0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E3D0D8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="827081"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="AEA3B0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E3D0D8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="827081"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="827081"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$D$4:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-ED32-443B-A8F8-7B63B35F8F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1040616911"/>
+        <c:axId val="1040611631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1040616911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="827081"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="827081"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040611631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1040611631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="827081"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="827081"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040616911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="E7E6F7"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ExpenseTracker.xlsx]Dashboard!ExpenseCalculator</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="827081"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="827081"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Expenses by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -470,217 +2560,102 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="827081"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="DB96EE"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="998565"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="383466"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="DEC73E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="DEC73E"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="7"/>
+        <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="D87E7E"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -698,6 +2673,35 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -713,7 +2717,108 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="DB96EE"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="998565"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="383466"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="DEC73E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="DEC73E"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D87E7E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -725,8 +2830,34 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="827081"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -737,7 +2868,105 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="11"/>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="827081"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="827081"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -753,385 +2982,7 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1145,7 +2996,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1153,7 +3004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$3</c:f>
+              <c:f>Dashboard!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1164,7 +3015,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="827081"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1172,74 +3023,242 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="827081"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="827081"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$12</c:f>
+              <c:f>Dashboard!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Travel</c:v>
+                  <c:v>Entertainment</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Shopping</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Rent</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Insurance</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bills</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Food</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Health</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$12</c:f>
+              <c:f>Dashboard!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12457</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2975</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2700</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1267.99</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>465</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>379.3</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155.80000000000001</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5566-4B8E-93AE-8DFE2B179E28}"/>
+              <c16:uniqueId val="{0000001C-2C08-4C07-A7E5-1C4DB21DD05E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,18 +3270,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="673052847"/>
-        <c:axId val="799563823"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="1405248319"/>
+        <c:axId val="1405240159"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="673052847"/>
+        <c:axId val="1405248319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1271,10 +3289,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="827081"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1287,10 +3302,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="827081"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1300,7 +3312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799563823"/>
+        <c:crossAx val="1405240159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,12 +3320,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="799563823"/>
+        <c:axId val="1405240159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1335,7 +3347,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="827081"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1346,10 +3360,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="827081"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1359,7 +3370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673052847"/>
+        <c:crossAx val="1405248319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,7 +3395,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="E7E6F7"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1417,7 +3428,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1430,6 +3440,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1972,19 +4022,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1992,11 +4547,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F4A8BF-1566-DE85-DE2B-005AE3573716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0364BB7-F8A2-4B81-B1FB-27E6BA46D138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2010,403 +4567,650 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1955340-D0FB-4C62-A366-EA99AFC7CF52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBD5108-E068-E22E-8965-DF60D5708C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240" y="15240"/>
+          <a:ext cx="12176760" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E7E6F7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="827081"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> EXPENSE TRACKER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="3000" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="827081"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Categroy 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91579818-0F81-4580-AD4E-92351A4DD296}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categroy 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="53340" y="2186940"/>
+              <a:ext cx="12138660" cy="701040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Date 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7699998B-60D2-49B2-A57E-790DFE4CD8CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="53340" y="701040"/>
+              <a:ext cx="12153900" cy="1432560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Dollar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49338AFA-CDB5-9E00-EBA1-78ABE736FCF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="3124200"/>
+          <a:ext cx="198120" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="madhu" refreshedDate="45519.937322106482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{26BDC8BC-DD39-43DC-9D7A-D176CD730689}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="madhu" refreshedDate="45523.355500231482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{FCA24BDE-89C2-4D4E-A1DD-BB71999B7170}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:E1048576" sheet="Expenses Table"/>
+    <worksheetSource name="ExpenseTable"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="6">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-08-01T00:00:00" maxDate="2024-09-16T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-11-27T00:00:00" maxDate="2024-08-20T00:00:00" count="12">
+        <d v="2024-06-16T00:00:00"/>
+        <d v="2024-06-18T00:00:00"/>
+        <d v="2024-06-25T00:00:00"/>
+        <d v="2024-07-01T00:00:00"/>
+        <d v="2024-07-02T00:00:00"/>
+        <d v="2024-07-04T00:00:00"/>
+        <d v="2024-08-17T00:00:00"/>
+        <d v="2024-08-19T00:00:00"/>
+        <d v="2024-08-18T00:00:00"/>
+        <d v="2023-11-27T00:00:00" u="1"/>
+        <d v="2023-12-04T00:00:00" u="1"/>
+        <d v="2023-12-25T00:00:00" u="1"/>
+      </sharedItems>
+      <fieldGroup par="5"/>
     </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
-        <s v="Travel"/>
+    <cacheField name="Categroy" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Utilities"/>
+        <s v="Miscellaneous"/>
+        <s v="Transport"/>
         <s v="Food"/>
         <s v="Shopping"/>
-        <s v="Education"/>
+        <s v="Entertainment"/>
+        <s v="Healthcare"/>
         <s v="Rent"/>
-        <s v="Health"/>
-        <s v="Insurance"/>
-        <s v="Bills"/>
-        <s v="Skincare"/>
-        <s v="Groceries"/>
-        <s v="Toiletries"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Amount" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="15.8" maxValue="6570"/>
+    <cacheField name="Amount" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="700"/>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2024-06-16T00:00:00" endDate="2024-08-20T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;16-06-2024"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;20-08-2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2024-06-16T00:00:00" endDate="2024-08-20T00:00:00"/>
+        <groupItems count="3">
+          <s v="&lt;16-06-2024"/>
+          <s v="2024"/>
+          <s v="&gt;20-08-2024"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1318120820"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
-    <d v="2024-08-01T00:00:00"/>
     <x v="0"/>
-    <s v="Uber"/>
-    <n v="25"/>
+    <x v="0"/>
+    <s v="Electricity Bill"/>
+    <n v="100"/>
   </r>
   <r>
-    <d v="2024-08-01T00:00:00"/>
     <x v="1"/>
-    <s v="UberEats"/>
-    <n v="20"/>
+    <x v="1"/>
+    <s v="Manicure"/>
+    <n v="100"/>
   </r>
   <r>
-    <d v="2024-08-03T00:00:00"/>
     <x v="2"/>
-    <s v="Mobile"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <d v="2024-08-04T00:00:00"/>
-    <x v="3"/>
-    <s v="Books"/>
-    <n v="70"/>
-  </r>
-  <r>
-    <d v="2024-08-04T00:00:00"/>
-    <x v="4"/>
-    <s v="House Rent"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <d v="2024-08-06T00:00:00"/>
-    <x v="5"/>
-    <s v="Cold"/>
-    <n v="15.8"/>
-  </r>
-  <r>
-    <d v="2024-08-06T00:00:00"/>
-    <x v="6"/>
-    <s v="Bike Insurance"/>
-    <n v="67.989999999999995"/>
-  </r>
-  <r>
-    <d v="2024-08-08T00:00:00"/>
-    <x v="7"/>
-    <s v="Electricity"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <d v="2024-08-09T00:00:00"/>
-    <x v="0"/>
-    <s v="Uber"/>
-    <n v="22.5"/>
-  </r>
-  <r>
-    <d v="2024-08-10T00:00:00"/>
-    <x v="1"/>
-    <s v="UberEats"/>
-    <n v="20.100000000000001"/>
-  </r>
-  <r>
-    <d v="2024-08-11T00:00:00"/>
-    <x v="0"/>
-    <s v="Petrol for car"/>
+    <x v="2"/>
+    <s v="Fuel"/>
     <n v="50"/>
   </r>
   <r>
-    <d v="2024-08-12T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bill"/>
-    <n v="60"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Groceries"/>
+    <n v="50"/>
   </r>
   <r>
-    <d v="2024-08-13T00:00:00"/>
-    <x v="5"/>
-    <s v="Fever"/>
-    <n v="60"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Jacket"/>
+    <n v="150"/>
   </r>
   <r>
-    <d v="2024-08-14T00:00:00"/>
-    <x v="3"/>
-    <s v="Stationary"/>
-    <n v="300"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="Movie"/>
+    <n v="40"/>
   </r>
   <r>
-    <d v="2024-08-16T00:00:00"/>
     <x v="6"/>
-    <s v="Car Insurance"/>
-    <n v="400"/>
+    <x v="6"/>
+    <s v="Health Insurance"/>
+    <n v="140"/>
   </r>
   <r>
-    <d v="2024-08-16T00:00:00"/>
-    <x v="4"/>
-    <s v="Shop Rent"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <d v="2024-08-17T00:00:00"/>
-    <x v="1"/>
-    <s v="Groceries"/>
-    <n v="100"/>
-  </r>
-  <r>
-    <d v="2024-08-18T00:00:00"/>
-    <x v="0"/>
-    <s v="Car "/>
-    <n v="70"/>
-  </r>
-  <r>
-    <d v="2024-08-18T00:00:00"/>
-    <x v="1"/>
-    <s v="UberEats"/>
-    <n v="33.200000000000003"/>
-  </r>
-  <r>
-    <d v="2024-08-18T00:00:00"/>
-    <x v="2"/>
-    <s v="Shoes"/>
-    <n v="350"/>
-  </r>
-  <r>
-    <d v="2024-08-20T00:00:00"/>
-    <x v="2"/>
-    <s v="Jacket"/>
-    <n v="280"/>
-  </r>
-  <r>
-    <d v="2024-08-21T00:00:00"/>
-    <x v="1"/>
-    <s v="Breakfast at xyz"/>
-    <n v="30.5"/>
-  </r>
-  <r>
-    <d v="2024-08-22T00:00:00"/>
-    <x v="0"/>
-    <s v="Uber"/>
-    <n v="19.5"/>
-  </r>
-  <r>
-    <d v="2024-08-23T00:00:00"/>
-    <x v="5"/>
-    <s v="Backpain medicine"/>
-    <n v="80"/>
-  </r>
-  <r>
-    <d v="2024-08-24T00:00:00"/>
     <x v="7"/>
-    <s v="Gas Bill"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <d v="2024-08-25T00:00:00"/>
-    <x v="2"/>
-    <s v="Rings"/>
-    <n v="1400"/>
-  </r>
-  <r>
-    <d v="2024-08-26T00:00:00"/>
-    <x v="0"/>
-    <s v="Petrol for car"/>
+    <x v="7"/>
+    <s v="House Rent"/>
     <n v="700"/>
   </r>
   <r>
-    <d v="2024-08-27T00:00:00"/>
-    <x v="3"/>
-    <s v="Course fee"/>
-    <n v="299"/>
+    <x v="7"/>
+    <x v="2"/>
+    <s v="Uber "/>
+    <n v="40"/>
   </r>
   <r>
-    <d v="2024-08-28T00:00:00"/>
-    <x v="6"/>
-    <s v="Health Insurance"/>
-    <n v="680"/>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Clothes"/>
+    <n v="150"/>
   </r>
   <r>
-    <d v="2024-08-29T00:00:00"/>
-    <x v="2"/>
-    <s v="Bed sheets"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <d v="2024-08-30T00:00:00"/>
-    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
     <s v="Wifi Bill"/>
-    <n v="100"/>
-  </r>
-  <r>
-    <d v="2024-08-31T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bill"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <d v="2024-09-01T00:00:00"/>
-    <x v="4"/>
-    <s v="House Rent"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <d v="2024-09-02T00:00:00"/>
-    <x v="2"/>
-    <s v="Clothes"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <d v="2024-09-03T00:00:00"/>
-    <x v="0"/>
-    <s v="Trip to India"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <d v="2024-09-04T00:00:00"/>
-    <x v="3"/>
-    <s v="Stationary"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <d v="2024-09-05T00:00:00"/>
-    <x v="0"/>
-    <s v="Trip to Syndey"/>
-    <n v="3000"/>
-  </r>
-  <r>
-    <d v="2024-09-06T00:00:00"/>
-    <x v="6"/>
-    <s v="Bike Insurance"/>
-    <n v="120"/>
-  </r>
-  <r>
-    <d v="2024-09-07T00:00:00"/>
-    <x v="0"/>
-    <s v="Trip to USA"/>
-    <n v="6570"/>
-  </r>
-  <r>
-    <d v="2024-09-08T00:00:00"/>
-    <x v="1"/>
-    <s v="UberEats"/>
     <n v="50"/>
   </r>
   <r>
-    <d v="2024-09-09T00:00:00"/>
-    <x v="1"/>
-    <s v="UberEats"/>
-    <n v="33.5"/>
-  </r>
-  <r>
-    <d v="2024-09-10T00:00:00"/>
-    <x v="1"/>
-    <s v="Lunch at xyz"/>
-    <n v="68"/>
-  </r>
-  <r>
-    <d v="2024-09-11T00:00:00"/>
-    <x v="8"/>
-    <s v="Serum"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <d v="2024-09-12T00:00:00"/>
-    <x v="8"/>
-    <s v="Sunscreen"/>
-    <n v="78"/>
-  </r>
-  <r>
-    <d v="2024-09-13T00:00:00"/>
-    <x v="9"/>
-    <s v="Vegetables at xyz"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <d v="2024-09-14T00:00:00"/>
-    <x v="10"/>
-    <s v="Tissues, Hand Wash"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <d v="2024-09-15T00:00:00"/>
-    <x v="1"/>
-    <s v="Dinner at xyz"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <m/>
-    <m/>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Ate Out"/>
+    <n v="120"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0D43485-FC84-4647-BFE5-F8C3C69BB31F}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="CATEGORY">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60D74D0E-2A6E-409F-BAA2-A615C3FF27BA}" name="YearlyExpenses" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Year">
+  <location ref="N3:O4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
       <items count="13">
-        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
+        <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AECB1B0B-A716-40FF-AF65-BFB29F14A3C9}" name="MonthlyExpenses" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Month">
+  <location ref="D3:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
         <item x="4"/>
         <item x="2"/>
         <item x="0"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="4">
+    <i>
+      <x v="6"/>
+    </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -2416,10 +5220,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="1" baseItem="0"/>
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="17" format="0" series="1">
+    <chartFormat chart="4" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2441,16 +5245,288 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CABE6F27-54F4-4796-98A2-0E7EE1012EF3}" name="ExpenseCalculator" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="9">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="10" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Categroy" xr10:uid="{556B2A89-BEB1-4BEF-B693-BE579D5298BF}" sourceName="Categroy">
+  <pivotTables>
+    <pivotTable tabId="9" name="MonthlyExpenses"/>
+    <pivotTable tabId="9" name="ExpenseCalculator"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1318120820">
+      <items count="8">
+        <i x="5" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="1"/>
+        <i x="1" s="1"/>
+        <i x="7" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Categroy 1" xr10:uid="{C6C6BC5F-D84B-4210-BE8E-E7A6202275AF}" cache="Slicer_Categroy" caption="Categroy" columnCount="9" style="tracker" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A316C90F-C967-42B3-B0CF-EE0B64A49E9C}" name="Table1" displayName="Table1" ref="B1:E48" totalsRowShown="0">
   <autoFilter ref="B1:E48" xr:uid="{A316C90F-C967-42B3-B0CF-EE0B64A49E9C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6AF3BD60-EAA3-4F27-88E4-336BD8B971C4}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6AF3BD60-EAA3-4F27-88E4-336BD8B971C4}" name="Date" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{2AEA7E35-A0DE-434A-8752-04742F3D9DB4}" name="Category"/>
     <tableColumn id="3" xr3:uid="{4D92525B-5F3D-4DEF-8CDA-957F21A89AB4}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{4155BEE2-2932-449C-9608-B41894AB1DEA}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4155BEE2-2932-449C-9608-B41894AB1DEA}" name="Amount" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81751307-6743-4122-B272-D6789056CD63}" name="ExpenseTable" displayName="ExpenseTable" ref="B4:E16" totalsRowShown="0" headerRowDxfId="7" dataDxfId="2" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="B4:E16" xr:uid="{81751307-6743-4122-B272-D6789056CD63}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9EA174B7-BA10-4FC9-A732-E9371029D668}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{08B0C5B8-F41C-483B-A5EC-CA988069D01F}" name="Categroy" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7F3B0208-9D1D-4344-90F0-364CCBAC7939}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{018CB1EF-F264-40C5-9F30-41FD682862A1}" name="Amount" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2749,12 +5825,32 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date" xr10:uid="{37DB3B39-7663-44DE-9EE2-9B44257D70B4}" sourceName="Date">
+  <pivotTables>
+    <pivotTable tabId="9" name="MonthlyExpenses"/>
+    <pivotTable tabId="9" name="ExpenseCalculator"/>
+    <pivotTable tabId="9" name="YearlyExpenses"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1318120820" filterType="unknown">
+    <bounds startDate="2023-01-01T00:00:00" endDate="2025-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date 1" xr10:uid="{7625FF51-CA07-4D48-8A69-E3730D51C84E}" cache="NativeTimeline_Date" caption="Date" level="2" selectionLevel="2" scrollPosition="2023-01-01T00:00:00" style="Timeline Style 1"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA374E-1D0F-4E64-A4B9-60C18370E248}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3249,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
@@ -3263,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E36" s="3">
         <v>2000</v>
@@ -3291,7 +6387,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3">
         <v>3000</v>
@@ -3319,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3">
         <v>6570</v>
@@ -3361,7 +6457,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3">
         <v>68</v>
@@ -3372,10 +6468,10 @@
         <v>45546</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E44" s="3">
         <v>150</v>
@@ -3386,10 +6482,10 @@
         <v>45547</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E45" s="3">
         <v>78</v>
@@ -3403,7 +6499,7 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E46" s="3">
         <v>150</v>
@@ -3414,10 +6510,10 @@
         <v>45549</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E47" s="3">
         <v>45</v>
@@ -3431,7 +6527,7 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48" s="3">
         <v>24</v>
@@ -3446,167 +6542,609 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6071981-8CFB-4216-B595-98348BDE923D}">
-  <dimension ref="A3:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2F1D4-2BB5-4F8A-AF09-B35F1ED82683}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="2:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45459</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>45461</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>45468</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>45475</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>45477</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="16">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
-        <v>12457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>45521</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>45523</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>45523</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>45523</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1267.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="D14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="17">
+        <v>45522</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
+        <v>45523</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10">
-        <v>379.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>155.80000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="10">
-        <v>21269.09</v>
+      <c r="D16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="19">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{6427D045-6FD1-4DCA-B6EC-D6FC664D797C}">
+      <formula1>CategoryList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E798A-38DB-4BE6-AAE9-8CA3B7160A57}">
-  <dimension ref="B5:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164E536E-6447-4C88-A102-E45993848B63}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A3:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6">
+        <v>250</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6">
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
+      <c r="E7" s="6">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEF2680-2693-4C64-917C-7886C5454ECA}">
+  <dimension ref="P18:S21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="16" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="16:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="P18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+    </row>
+    <row r="20" spans="16:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="P20" s="23">
+        <f>GETPIVOTDATA("Amount",Dashboard!$D$3)</f>
+        <v>1690</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+    </row>
+    <row r="21" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P20:S20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId3"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC7686F-D1E3-4A17-8D13-5BADE9C080A2}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD826A4-8D89-43ED-A230-2FBCFDFE97C0}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B3:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>